--- a/零碎知识.xlsx
+++ b/零碎知识.xlsx
@@ -4,13 +4,71 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="模型知识结构" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>简单线性回归模型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y 是因变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1  是自变量或预测变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用OLS来估计参数（普通最小二乘法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整R2 ：变量的增加不一定对模型有很大的帮助，Adj R2就是用来判断变量是否真的对模型有帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟合优度 R2 ：判断当前变量是否对模型有帮助，越大，说明预测越准确，当然增加变量个数，R2一定会增加，但是增加的幅度或者说对模型的帮助不一定显著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评判模型的好坏（包含了奥卡姆剃刀原则）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元变量筛选：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：向前法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：向后法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIC：赤赤信息量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIC：贝叶斯信息量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对大量变量筛选之后，只是初步，之后需要对筛选后的变量进行细致的分析工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -140,6 +198,680 @@
         <a:xfrm>
           <a:off x="685800" y="2571750"/>
           <a:ext cx="8133333" cy="4295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1685925" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="647699" y="381000"/>
+              <a:ext cx="1685925" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒀</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜷</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜷</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜺</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="647699" y="381000"/>
+              <a:ext cx="1685925" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒀= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜷</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_𝟎+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜷</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_𝟏 𝑿_𝟏+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜺</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="788934" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="666750" y="1052512"/>
+              <a:ext cx="788934" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜀</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>    </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>是扰动项</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="666750" y="1052512"/>
+              <a:ext cx="788934" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>是扰动项</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889026" cy="174278"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="676275" y="1243012"/>
+              <a:ext cx="889026" cy="174278"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝛽</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>  </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>是未知系数</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="676275" y="1243012"/>
+              <a:ext cx="889026" cy="174278"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛽</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>是未知系数</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199143</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1781175"/>
+          <a:ext cx="7057143" cy="1952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103819</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6677025"/>
+          <a:ext cx="7647619" cy="4609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -440,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -451,4 +1183,87 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>